--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos3\PRM2-PASS\Pass01db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos3\Pass01db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBB8E3C-0762-4795-B1CC-1F5AED37C04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93598B92-3142-4089-B653-F40938A5F358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1950" windowWidth="40200" windowHeight="19605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32070" yWindow="4815" windowWidth="22875" windowHeight="16815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="64">
   <si>
     <t>Event Happened</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Count of EventId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more cps </t>
+  </si>
+  <si>
+    <t>more clinics</t>
   </si>
 </sst>
 </file>
@@ -217,7 +223,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -250,7 +256,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -277,41 +283,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Leroy Mason" refreshedDate="44803.476946064817" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{384ACC97-85BA-423B-85D1-CDB63FEEBA86}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Leroy Mason" refreshedDate="44809.431665856479" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{384ACC97-85BA-423B-85D1-CDB63FEEBA86}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H33" sheet="sheet1"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Event Happened" numFmtId="0">
-      <sharedItems count="27">
-        <s v="19/Aug/22 01:00"/>
-        <s v="19/Aug/22 01:05"/>
-        <s v="29/Aug/22 01:00"/>
-        <s v="08/Sep/22 01:00"/>
-        <s v="19/Sep/22 01:00"/>
-        <s v="23/Sep/22 05:00"/>
-        <s v="29/Sep/22 01:00"/>
-        <s v="08/Oct/22 01:00"/>
-        <s v="08/Oct/22 01:10"/>
-        <s v="08/Nov/22 01:00"/>
-        <s v="08/Nov/22 01:10"/>
-        <s v="08/Nov/22 01:30"/>
-        <s v="08/Jan/23 01:00"/>
-        <s v="08/Jan/23 01:10"/>
-        <s v="08/Feb/23 01:00"/>
-        <s v="08/Feb/23 01:10"/>
-        <s v="08/Feb/23 01:30"/>
-        <s v="08/Apr/23 01:00"/>
-        <s v="08/May/23 01:00"/>
-        <s v="08/May/23 01:30"/>
-        <s v="08/Jul/23 01:00"/>
-        <s v="08/Aug/23 01:00"/>
-        <s v="08/Aug/23 01:30"/>
-        <s v="08/Oct/23 01:00"/>
-        <s v="08/Nov/23 01:00"/>
-        <s v="08/Nov/23 01:30"/>
-        <s v="08/Jan/24 01:00"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="PatientId" numFmtId="0">
       <sharedItems/>
@@ -340,7 +318,7 @@
     <cacheField name="EventId" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="95"/>
     </cacheField>
-    <cacheField name="EventTime" numFmtId="166">
+    <cacheField name="EventTime" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-08-19T13:00:00" maxDate="2024-01-08T13:00:00" count="27">
         <d v="2022-08-19T13:00:00"/>
         <d v="2022-08-19T13:05:00"/>
@@ -427,7 +405,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="32">
   <r>
-    <x v="0"/>
+    <s v="19/Aug/22 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="0"/>
     <x v="0"/>
@@ -437,7 +415,7 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="19/Aug/22 01:05"/>
     <s v="004-1234567-11005500"/>
     <x v="0"/>
     <x v="1"/>
@@ -447,7 +425,7 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="2"/>
+    <s v="29/Aug/22 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="0"/>
     <x v="2"/>
@@ -457,7 +435,7 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="3"/>
+    <s v="08/Sep/22 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="0"/>
     <x v="3"/>
@@ -467,7 +445,7 @@
     <x v="3"/>
   </r>
   <r>
-    <x v="3"/>
+    <s v="08/Sep/22 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="0"/>
     <x v="0"/>
@@ -477,7 +455,7 @@
     <x v="3"/>
   </r>
   <r>
-    <x v="4"/>
+    <s v="19/Sep/22 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="0"/>
     <x v="0"/>
@@ -487,7 +465,7 @@
     <x v="4"/>
   </r>
   <r>
-    <x v="5"/>
+    <s v="23/Sep/22 05:00"/>
     <s v="004-1234567-11005500"/>
     <x v="0"/>
     <x v="0"/>
@@ -497,7 +475,7 @@
     <x v="5"/>
   </r>
   <r>
-    <x v="6"/>
+    <s v="29/Sep/22 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="0"/>
     <x v="2"/>
@@ -507,7 +485,7 @@
     <x v="6"/>
   </r>
   <r>
-    <x v="6"/>
+    <s v="29/Sep/22 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="0"/>
     <x v="1"/>
@@ -517,7 +495,7 @@
     <x v="6"/>
   </r>
   <r>
-    <x v="7"/>
+    <s v="08/Oct/22 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="0"/>
     <x v="3"/>
@@ -527,7 +505,7 @@
     <x v="7"/>
   </r>
   <r>
-    <x v="7"/>
+    <s v="08/Oct/22 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="0"/>
@@ -537,7 +515,7 @@
     <x v="7"/>
   </r>
   <r>
-    <x v="8"/>
+    <s v="08/Oct/22 01:10"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="1"/>
@@ -547,7 +525,7 @@
     <x v="8"/>
   </r>
   <r>
-    <x v="9"/>
+    <s v="08/Nov/22 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="2"/>
@@ -557,7 +535,7 @@
     <x v="9"/>
   </r>
   <r>
-    <x v="10"/>
+    <s v="08/Nov/22 01:10"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="4"/>
@@ -567,7 +545,7 @@
     <x v="10"/>
   </r>
   <r>
-    <x v="11"/>
+    <s v="08/Nov/22 01:30"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="3"/>
@@ -577,7 +555,7 @@
     <x v="11"/>
   </r>
   <r>
-    <x v="12"/>
+    <s v="08/Jan/23 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="0"/>
@@ -587,7 +565,7 @@
     <x v="12"/>
   </r>
   <r>
-    <x v="13"/>
+    <s v="08/Jan/23 01:10"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="1"/>
@@ -597,7 +575,7 @@
     <x v="13"/>
   </r>
   <r>
-    <x v="14"/>
+    <s v="08/Feb/23 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="2"/>
@@ -607,7 +585,7 @@
     <x v="14"/>
   </r>
   <r>
-    <x v="15"/>
+    <s v="08/Feb/23 01:10"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="4"/>
@@ -617,7 +595,7 @@
     <x v="15"/>
   </r>
   <r>
-    <x v="16"/>
+    <s v="08/Feb/23 01:30"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="3"/>
@@ -627,7 +605,7 @@
     <x v="16"/>
   </r>
   <r>
-    <x v="17"/>
+    <s v="08/Apr/23 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="0"/>
@@ -637,7 +615,7 @@
     <x v="17"/>
   </r>
   <r>
-    <x v="17"/>
+    <s v="08/Apr/23 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="0"/>
@@ -647,7 +625,7 @@
     <x v="17"/>
   </r>
   <r>
-    <x v="18"/>
+    <s v="08/May/23 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="2"/>
@@ -657,7 +635,7 @@
     <x v="18"/>
   </r>
   <r>
-    <x v="19"/>
+    <s v="08/May/23 01:30"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="3"/>
@@ -667,7 +645,7 @@
     <x v="19"/>
   </r>
   <r>
-    <x v="20"/>
+    <s v="08/Jul/23 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="0"/>
@@ -677,7 +655,7 @@
     <x v="20"/>
   </r>
   <r>
-    <x v="20"/>
+    <s v="08/Jul/23 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="0"/>
@@ -687,7 +665,7 @@
     <x v="20"/>
   </r>
   <r>
-    <x v="21"/>
+    <s v="08/Aug/23 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="2"/>
@@ -697,7 +675,7 @@
     <x v="21"/>
   </r>
   <r>
-    <x v="22"/>
+    <s v="08/Aug/23 01:30"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="3"/>
@@ -707,7 +685,7 @@
     <x v="22"/>
   </r>
   <r>
-    <x v="23"/>
+    <s v="08/Oct/23 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="0"/>
@@ -717,7 +695,7 @@
     <x v="23"/>
   </r>
   <r>
-    <x v="24"/>
+    <s v="08/Nov/23 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="2"/>
@@ -727,7 +705,7 @@
     <x v="24"/>
   </r>
   <r>
-    <x v="25"/>
+    <s v="08/Nov/23 01:30"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="3"/>
@@ -737,7 +715,7 @@
     <x v="25"/>
   </r>
   <r>
-    <x v="26"/>
+    <s v="08/Jan/24 01:00"/>
     <s v="004-1234567-11005500"/>
     <x v="1"/>
     <x v="0"/>
@@ -753,38 +731,7 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E4C825F-A5F1-41BC-961D-1C72FD6A34C7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:N17" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="10">
-    <pivotField showAll="0">
-      <items count="28">
-        <item x="17"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="26"/>
-        <item x="20"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="23"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
@@ -806,7 +753,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" numFmtId="166" showAll="0">
+    <pivotField axis="axisCol" numFmtId="164" showAll="0">
       <items count="15">
         <item x="0"/>
         <item x="1"/>
@@ -1252,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540C223D-6B0A-4251-BE4D-4A1983231AFD}">
-  <dimension ref="A3:N17"/>
+  <dimension ref="A3:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,6 +1599,16 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
